--- a/bin/Debug/netcoreapp3.1/Excel/VI A.xlsx
+++ b/bin/Debug/netcoreapp3.1/Excel/VI A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajesh\Desktop\Asha18.06\Asha vacation work\children name list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amit\Code\React\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A103A3DE-2D73-418A-A7B6-1961DE148285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02107B0-6FFE-47AD-9D81-E12C9107A0BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C79E0ABB-4D34-42B8-80C6-83C6D2EEFC06}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{C79E0ABB-4D34-42B8-80C6-83C6D2EEFC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>R NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ABIRAMI JANVI K</t>
   </si>
@@ -127,9 +121,6 @@
   </si>
   <si>
     <t>ZAINAB</t>
-  </si>
-  <si>
-    <t>CLASS VI A NAME LIST</t>
   </si>
   <si>
     <t>CHAKSHU PATIL</t>
@@ -163,16 +154,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -194,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,20 +200,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,12 +218,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5960612-3EA2-4F2D-A0FC-26FEA8FCE4DE}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,306 +545,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
+      <c r="A3" s="2">
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>35</v>
-      </c>
-      <c r="B38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>37</v>
@@ -884,48 +858,21 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>37</v>
-      </c>
-      <c r="B40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>38</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>39</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>40</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>41</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>